--- a/Data/mailList.xlsx
+++ b/Data/mailList.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\UiPath\EpkDemo\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="mailList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +42,10 @@
   </si>
   <si>
     <t>cblee@taihoinst.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eunpyo47@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -404,7 +403,7 @@
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -420,11 +419,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -433,8 +435,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Data/mailList.xlsx
+++ b/Data/mailList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="11985"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>이창배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cblee@taihoinst.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +74,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,6 +106,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -104,12 +130,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -384,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,7 +430,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -404,40 +439,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>